--- a/Data/raw/data_excel.xlsx
+++ b/Data/raw/data_excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da209bad219a65be/Documentos/Brasil/mestrado/metaanalysis/Data/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neddy3-my.sharepoint.com/personal/186535_office365online_co/Documents/Documentos/Brasil/Mestrado/mestrado/metaanalysis/Data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="243" documentId="11_369BB5AE514004CADD4BFACAF3AAA7AED50CDE15" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E39887EA-68EA-415B-91BA-8CE5F4BFA6E6}"/>
+  <xr:revisionPtr revIDLastSave="282" documentId="11_369BB5AE514004CADD4BFACAF3AAA7AED50CDE15" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73285CD9-E03A-4CC9-8B76-1DE485D4D49A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="424">
   <si>
     <t>researcher</t>
   </si>
@@ -1003,6 +1003,336 @@
   <si>
     <t>nativetrees</t>
   </si>
+  <si>
+    <t>Hata,Kawakami&amp;Kachi 2024</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>27º04´N</t>
+  </si>
+  <si>
+    <t>142º11E</t>
+  </si>
+  <si>
+    <t>plantatations that were abandoned and underwent secondary succession. During this process, C. equisetifolia invaded some sites, and increased in dominance in others</t>
+  </si>
+  <si>
+    <t>planted: more than 500 seeds sown in each 1 m x 2 m quadrats within each site separated by a distance of less than 1 m apart from each other.</t>
+  </si>
+  <si>
+    <t>Pandanus boninensis</t>
+  </si>
+  <si>
+    <t>pandanaceae</t>
+  </si>
+  <si>
+    <t>187_01</t>
+  </si>
+  <si>
+    <t>quadrats without leucaena</t>
+  </si>
+  <si>
+    <t>187_001</t>
+  </si>
+  <si>
+    <t>1m*2m quadrats</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Rhaphiolepis indica</t>
+  </si>
+  <si>
+    <t>rosaceae</t>
+  </si>
+  <si>
+    <t>Figure 3_results</t>
+  </si>
+  <si>
+    <t>diameter</t>
+  </si>
+  <si>
+    <t>Schima mertensiana</t>
+  </si>
+  <si>
+    <t>theaceae</t>
+  </si>
+  <si>
+    <t>Figure 4_results</t>
+  </si>
+  <si>
+    <t>Terminalia catappa</t>
+  </si>
+  <si>
+    <t>combretaceae</t>
+  </si>
+  <si>
+    <t>Figure 5_results</t>
+  </si>
+  <si>
+    <t>Marler 2023</t>
+  </si>
+  <si>
+    <t>Guam Pacific Island, Micronesia</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>13º26´N</t>
+  </si>
+  <si>
+    <t>144º46´E</t>
+  </si>
+  <si>
+    <t>Forest microsites that had been conditioned by invasive canopy tree species were identified in northern Guam for high density monostands of Leucaena leucocephala and Vitex parviflora fragments</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>Cycas micronesica</t>
+  </si>
+  <si>
+    <t>Cycadaceae</t>
+  </si>
+  <si>
+    <t>173_01</t>
+  </si>
+  <si>
+    <t>conspecific adults</t>
+  </si>
+  <si>
+    <t>173_001</t>
+  </si>
+  <si>
+    <t>Marler 2024</t>
+  </si>
+  <si>
+    <t>137_02</t>
+  </si>
+  <si>
+    <t>native forest cover 10–15 m away from each C. micronesica tree, a</t>
+  </si>
+  <si>
+    <t>Table 2_results</t>
+  </si>
+  <si>
+    <t>Marler 2025</t>
+  </si>
+  <si>
+    <t>137_01</t>
+  </si>
+  <si>
+    <t>Marler 2026</t>
+  </si>
+  <si>
+    <t>Marler 2027</t>
+  </si>
+  <si>
+    <t>137_03</t>
+  </si>
+  <si>
+    <t>137_002</t>
+  </si>
+  <si>
+    <t>Marler 2028</t>
+  </si>
+  <si>
+    <t>137_04</t>
+  </si>
+  <si>
+    <t>Marler 2029</t>
+  </si>
+  <si>
+    <t>137_05</t>
+  </si>
+  <si>
+    <t>Carica trees</t>
+  </si>
+  <si>
+    <t>Marler 2030</t>
+  </si>
+  <si>
+    <t>137_06</t>
+  </si>
+  <si>
+    <t>Vitex trees</t>
+  </si>
+  <si>
+    <t>Marler 2031</t>
+  </si>
+  <si>
+    <t>Marler 2032</t>
+  </si>
+  <si>
+    <t>Marler 2033</t>
+  </si>
+  <si>
+    <t>Marler 2034</t>
+  </si>
+  <si>
+    <t>Mishra et al. 2025</t>
+  </si>
+  <si>
+    <t>Varanasi, Uttar Pradesh, India</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>82°59' E</t>
+  </si>
+  <si>
+    <t>monsoonal climate</t>
+  </si>
+  <si>
+    <t>950 mm</t>
+  </si>
+  <si>
+    <t>Prosopis Juliflora</t>
+  </si>
+  <si>
+    <t>Fabaceae</t>
+  </si>
+  <si>
+    <t>003_01</t>
+  </si>
+  <si>
+    <t>subplots without Leucaena</t>
+  </si>
+  <si>
+    <t>003_001</t>
+  </si>
+  <si>
+    <t>2m*2m</t>
+  </si>
+  <si>
+    <t>Mishra et al. 2026</t>
+  </si>
+  <si>
+    <t>951 mm</t>
+  </si>
+  <si>
+    <t>root length</t>
+  </si>
+  <si>
+    <t>Mishra et al. 2027</t>
+  </si>
+  <si>
+    <t>952 mm</t>
+  </si>
+  <si>
+    <t>aboveground biomass</t>
+  </si>
+  <si>
+    <t>Table 4_results</t>
+  </si>
+  <si>
+    <t>Mishra et al. 2028</t>
+  </si>
+  <si>
+    <t>953 mm</t>
+  </si>
+  <si>
+    <t>belowground biomass</t>
+  </si>
+  <si>
+    <t>Suzaki on Chichijima Island, which is one of the Ogasawara Islands</t>
+  </si>
+  <si>
+    <t>Northern Guam</t>
+  </si>
+  <si>
+    <t>Banaras Hindu University Botanical Garden, city of Varanasi, Uttar Pradesh, India</t>
+  </si>
+  <si>
+    <t>25°16' N</t>
+  </si>
+  <si>
+    <t>187_002</t>
+  </si>
+  <si>
+    <t>187_003</t>
+  </si>
+  <si>
+    <t>187_004</t>
+  </si>
+  <si>
+    <t>187_005</t>
+  </si>
+  <si>
+    <t>187_006</t>
+  </si>
+  <si>
+    <t>187_007</t>
+  </si>
+  <si>
+    <t>187_008</t>
+  </si>
+  <si>
+    <t>187_009</t>
+  </si>
+  <si>
+    <t>187_010</t>
+  </si>
+  <si>
+    <t>187_011</t>
+  </si>
+  <si>
+    <t>187_012</t>
+  </si>
+  <si>
+    <t>187_013</t>
+  </si>
+  <si>
+    <t>187_014</t>
+  </si>
+  <si>
+    <t>173_002</t>
+  </si>
+  <si>
+    <t>173_003</t>
+  </si>
+  <si>
+    <t>173_004</t>
+  </si>
+  <si>
+    <t>173_005</t>
+  </si>
+  <si>
+    <t>173_006</t>
+  </si>
+  <si>
+    <t>173_007</t>
+  </si>
+  <si>
+    <t>173_008</t>
+  </si>
+  <si>
+    <t>173_009</t>
+  </si>
+  <si>
+    <t>173_010</t>
+  </si>
+  <si>
+    <t>173_011</t>
+  </si>
+  <si>
+    <t>173_012</t>
+  </si>
+  <si>
+    <t>003_002</t>
+  </si>
+  <si>
+    <t>003_003</t>
+  </si>
+  <si>
+    <t>003_004</t>
+  </si>
 </sst>
 </file>
 
@@ -1012,11 +1342,18 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1068,6 +1405,12 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1102,68 +1445,74 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1380,11 +1729,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU997"/>
+  <dimension ref="A1:BO997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH13" sqref="AH13"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AS29" sqref="AS29:AT58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3639,7 +3988,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>131</v>
       </c>
@@ -3776,7 +4125,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>131</v>
       </c>
@@ -3913,7 +4262,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>131</v>
       </c>
@@ -4050,7 +4399,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>131</v>
       </c>
@@ -4187,7 +4536,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>33</v>
       </c>
@@ -4322,7 +4671,7 @@
       </c>
       <c r="AU21" s="1"/>
     </row>
-    <row r="22" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>33</v>
       </c>
@@ -4457,7 +4806,7 @@
       </c>
       <c r="AU22" s="1"/>
     </row>
-    <row r="23" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>33</v>
       </c>
@@ -4592,7 +4941,7 @@
       </c>
       <c r="AU23" s="1"/>
     </row>
-    <row r="24" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>33</v>
       </c>
@@ -4727,7 +5076,7 @@
       </c>
       <c r="AU24" s="1"/>
     </row>
-    <row r="25" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>33</v>
       </c>
@@ -4862,7 +5211,7 @@
       </c>
       <c r="AU25" s="1"/>
     </row>
-    <row r="26" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>33</v>
       </c>
@@ -4995,7 +5344,7 @@
       </c>
       <c r="AU26" s="1"/>
     </row>
-    <row r="27" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>12</v>
       </c>
@@ -5132,7 +5481,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>12</v>
       </c>
@@ -5269,1446 +5618,4157 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
+    <row r="29" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>187</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E29" s="1">
+        <v>730</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M29" s="1">
+        <v>1225</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>318</v>
+      </c>
       <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
-      <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
-      <c r="AH29" s="1"/>
-      <c r="AI29" s="1"/>
-      <c r="AJ29" s="1"/>
-      <c r="AK29" s="14"/>
-      <c r="AL29" s="20"/>
-      <c r="AM29" s="20"/>
-      <c r="AN29" s="20"/>
-      <c r="AO29" s="1"/>
-      <c r="AP29" s="1"/>
-      <c r="AQ29" s="1"/>
-      <c r="AR29" s="14"/>
-      <c r="AS29" s="1"/>
-      <c r="AT29" s="1"/>
-      <c r="AU29" s="1"/>
-    </row>
-    <row r="30" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
+      <c r="Q29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z29" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD29" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>324</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>325</v>
+      </c>
+      <c r="AK29">
+        <v>159.167</v>
+      </c>
+      <c r="AL29">
+        <v>154</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO29">
+        <v>12</v>
+      </c>
+      <c r="AP29">
+        <v>12</v>
+      </c>
+      <c r="AQ29">
+        <v>5.5970000000000004</v>
+      </c>
+      <c r="AR29">
+        <v>7.101</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>220</v>
+      </c>
+      <c r="BO29" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="30" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>187</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E30" s="1">
+        <v>730</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M30" s="1">
+        <v>1225</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>318</v>
+      </c>
       <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
-      <c r="AH30" s="1"/>
-      <c r="AI30" s="1"/>
-      <c r="AJ30" s="1"/>
-      <c r="AK30" s="14"/>
-      <c r="AL30" s="18"/>
-      <c r="AM30" s="18"/>
-      <c r="AN30" s="18"/>
-      <c r="AO30" s="1"/>
-      <c r="AP30" s="1"/>
-      <c r="AQ30" s="1"/>
-      <c r="AR30" s="14"/>
-      <c r="AS30" s="1"/>
-      <c r="AT30" s="1"/>
-      <c r="AU30" s="1"/>
-    </row>
-    <row r="31" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
+      <c r="Q30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z30" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD30" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>324</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>325</v>
+      </c>
+      <c r="AK30">
+        <v>134</v>
+      </c>
+      <c r="AL30">
+        <v>118.5</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO30">
+        <v>12</v>
+      </c>
+      <c r="AP30">
+        <v>12</v>
+      </c>
+      <c r="AQ30">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="AR30">
+        <v>10.177</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>187</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E31" s="1">
+        <v>730</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M31" s="1">
+        <v>1225</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>318</v>
+      </c>
       <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
-      <c r="AH31" s="1"/>
-      <c r="AI31" s="1"/>
-      <c r="AJ31" s="1"/>
-      <c r="AK31" s="14"/>
-      <c r="AL31" s="18"/>
-      <c r="AM31" s="18"/>
-      <c r="AN31" s="18"/>
-      <c r="AO31" s="1"/>
-      <c r="AP31" s="1"/>
-      <c r="AQ31" s="1"/>
-      <c r="AR31" s="14"/>
-      <c r="AS31" s="1"/>
-      <c r="AT31" s="1"/>
-      <c r="AU31" s="1"/>
-    </row>
-    <row r="32" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
+      <c r="Q31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z31" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD31" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>324</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>325</v>
+      </c>
+      <c r="AK31">
+        <v>86.278000000000006</v>
+      </c>
+      <c r="AL31">
+        <v>57.944000000000003</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO31">
+        <v>9</v>
+      </c>
+      <c r="AP31">
+        <v>10</v>
+      </c>
+      <c r="AQ31">
+        <v>13.361000000000001</v>
+      </c>
+      <c r="AR31">
+        <v>8.15</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>329</v>
+      </c>
+      <c r="BO31" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="32" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>187</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E32" s="1">
+        <v>730</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M32" s="1">
+        <v>1225</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>318</v>
+      </c>
       <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
-      <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="1"/>
-      <c r="AF32" s="1"/>
-      <c r="AG32" s="1"/>
-      <c r="AH32" s="1"/>
-      <c r="AI32" s="1"/>
-      <c r="AJ32" s="1"/>
-      <c r="AK32" s="14"/>
-      <c r="AL32" s="18"/>
-      <c r="AM32" s="18"/>
-      <c r="AN32" s="18"/>
-      <c r="AO32" s="1"/>
-      <c r="AP32" s="1"/>
-      <c r="AQ32" s="1"/>
-      <c r="AR32" s="14"/>
-      <c r="AS32" s="1"/>
-      <c r="AT32" s="1"/>
-      <c r="AU32" s="1"/>
-    </row>
-    <row r="33" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
+      <c r="Q32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z32" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD32" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>324</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>325</v>
+      </c>
+      <c r="AK32">
+        <v>49.889000000000003</v>
+      </c>
+      <c r="AL32">
+        <v>35.5</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO32">
+        <v>9</v>
+      </c>
+      <c r="AP32">
+        <v>9</v>
+      </c>
+      <c r="AQ32">
+        <v>8.7469999999999999</v>
+      </c>
+      <c r="AR32">
+        <v>4.0389999999999997</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>187</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E33" s="1">
+        <v>730</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M33" s="1">
+        <v>1225</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>318</v>
+      </c>
       <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="1"/>
-      <c r="AF33" s="1"/>
-      <c r="AG33" s="1"/>
-      <c r="AH33" s="1"/>
-      <c r="AI33" s="1"/>
-      <c r="AJ33" s="1"/>
-      <c r="AK33" s="14"/>
-      <c r="AL33" s="18"/>
-      <c r="AM33" s="18"/>
-      <c r="AN33" s="18"/>
-      <c r="AO33" s="1"/>
-      <c r="AP33" s="1"/>
-      <c r="AQ33" s="1"/>
-      <c r="AR33" s="14"/>
-      <c r="AS33" s="1"/>
-      <c r="AT33" s="1"/>
-      <c r="AU33" s="1"/>
-    </row>
-    <row r="34" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
+      <c r="Q33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z33" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AC33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD33" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>324</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>325</v>
+      </c>
+      <c r="AK33">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="AL33">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO33">
+        <v>9</v>
+      </c>
+      <c r="AP33">
+        <v>10</v>
+      </c>
+      <c r="AQ33">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="AR33">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="34" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>187</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E34" s="1">
+        <v>730</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M34" s="1">
+        <v>1225</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>318</v>
+      </c>
       <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="1"/>
-      <c r="AF34" s="1"/>
-      <c r="AG34" s="1"/>
-      <c r="AH34" s="1"/>
-      <c r="AI34" s="1"/>
-      <c r="AJ34" s="1"/>
-      <c r="AK34" s="14"/>
-      <c r="AL34" s="18"/>
-      <c r="AM34" s="18"/>
-      <c r="AN34" s="18"/>
-      <c r="AO34" s="1"/>
-      <c r="AP34" s="1"/>
-      <c r="AQ34" s="1"/>
-      <c r="AR34" s="14"/>
-      <c r="AS34" s="1"/>
-      <c r="AT34" s="1"/>
-      <c r="AU34" s="1"/>
-    </row>
-    <row r="35" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
+      <c r="Q34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z34" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AC34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD34" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>324</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>325</v>
+      </c>
+      <c r="AK34">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="AL34">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO34">
+        <v>9</v>
+      </c>
+      <c r="AP34">
+        <v>9</v>
+      </c>
+      <c r="AQ34">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="AR34">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>187</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E35" s="1">
+        <v>730</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M35" s="1">
+        <v>1225</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>318</v>
+      </c>
       <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="1"/>
-      <c r="AB35" s="1"/>
-      <c r="AC35" s="1"/>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="1"/>
-      <c r="AF35" s="1"/>
-      <c r="AG35" s="1"/>
-      <c r="AH35" s="1"/>
-      <c r="AI35" s="1"/>
-      <c r="AJ35" s="1"/>
-      <c r="AK35" s="14"/>
-      <c r="AL35" s="18"/>
-      <c r="AM35" s="18"/>
-      <c r="AN35" s="18"/>
-      <c r="AO35" s="1"/>
-      <c r="AP35" s="1"/>
-      <c r="AQ35" s="1"/>
-      <c r="AR35" s="14"/>
-      <c r="AS35" s="1"/>
-      <c r="AT35" s="1"/>
-      <c r="AU35" s="1"/>
-    </row>
-    <row r="36" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
+      <c r="Q35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z35" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD35" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE35" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>324</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>325</v>
+      </c>
+      <c r="AK35">
+        <v>206.68700000000001</v>
+      </c>
+      <c r="AL35">
+        <v>162.667</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO35">
+        <v>8</v>
+      </c>
+      <c r="AP35">
+        <v>6</v>
+      </c>
+      <c r="AQ35">
+        <v>27.346</v>
+      </c>
+      <c r="AR35">
+        <v>22.202000000000002</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>333</v>
+      </c>
+      <c r="BO35" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="36" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>187</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E36" s="1">
+        <v>730</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M36" s="1">
+        <v>1225</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>318</v>
+      </c>
       <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="1"/>
-      <c r="AF36" s="1"/>
-      <c r="AG36" s="1"/>
-      <c r="AH36" s="1"/>
-      <c r="AI36" s="1"/>
-      <c r="AJ36" s="1"/>
-      <c r="AK36" s="14"/>
-      <c r="AL36" s="18"/>
-      <c r="AM36" s="18"/>
-      <c r="AN36" s="18"/>
-      <c r="AO36" s="1"/>
-      <c r="AP36" s="1"/>
-      <c r="AQ36" s="1"/>
-      <c r="AR36" s="14"/>
-      <c r="AS36" s="1"/>
-      <c r="AT36" s="1"/>
-      <c r="AU36" s="1"/>
-    </row>
-    <row r="37" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
+      <c r="Q36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z36" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD36" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>324</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>325</v>
+      </c>
+      <c r="AK36">
+        <v>123.6</v>
+      </c>
+      <c r="AL36">
+        <v>138</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO36">
+        <v>5</v>
+      </c>
+      <c r="AP36">
+        <v>6</v>
+      </c>
+      <c r="AQ36">
+        <v>26.131</v>
+      </c>
+      <c r="AR36">
+        <v>24.963000000000001</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>187</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E37" s="1">
+        <v>730</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M37" s="1">
+        <v>1225</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>318</v>
+      </c>
       <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
-      <c r="AA37" s="1"/>
-      <c r="AB37" s="1"/>
-      <c r="AC37" s="1"/>
-      <c r="AD37" s="1"/>
-      <c r="AE37" s="1"/>
-      <c r="AF37" s="1"/>
-      <c r="AG37" s="1"/>
-      <c r="AH37" s="1"/>
-      <c r="AI37" s="1"/>
-      <c r="AJ37" s="1"/>
-      <c r="AK37" s="14"/>
-      <c r="AL37" s="18"/>
-      <c r="AM37" s="18"/>
-      <c r="AN37" s="18"/>
-      <c r="AO37" s="1"/>
-      <c r="AP37" s="1"/>
-      <c r="AQ37" s="1"/>
-      <c r="AR37" s="14"/>
-      <c r="AS37" s="1"/>
-      <c r="AT37" s="1"/>
-      <c r="AU37" s="1"/>
-    </row>
-    <row r="38" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
+      <c r="Q37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z37" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA37" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB37" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AC37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD37" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>324</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>325</v>
+      </c>
+      <c r="AK37">
+        <v>2.7290000000000001</v>
+      </c>
+      <c r="AL37">
+        <v>2.0830000000000002</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO37">
+        <v>8</v>
+      </c>
+      <c r="AP37">
+        <v>6</v>
+      </c>
+      <c r="AQ37">
+        <v>0.314</v>
+      </c>
+      <c r="AR37">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>187</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E38" s="1">
+        <v>730</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M38" s="1">
+        <v>1225</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>318</v>
+      </c>
       <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
-      <c r="AA38" s="1"/>
-      <c r="AB38" s="1"/>
-      <c r="AC38" s="1"/>
-      <c r="AD38" s="1"/>
-      <c r="AE38" s="1"/>
-      <c r="AF38" s="1"/>
-      <c r="AG38" s="1"/>
-      <c r="AH38" s="1"/>
-      <c r="AI38" s="1"/>
-      <c r="AJ38" s="1"/>
-      <c r="AK38" s="14"/>
-      <c r="AL38" s="18"/>
-      <c r="AM38" s="18"/>
-      <c r="AN38" s="18"/>
-      <c r="AO38" s="1"/>
-      <c r="AP38" s="1"/>
-      <c r="AQ38" s="1"/>
-      <c r="AR38" s="14"/>
-      <c r="AS38" s="1"/>
-      <c r="AT38" s="1"/>
-      <c r="AU38" s="1"/>
-    </row>
-    <row r="39" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
+      <c r="Q38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z38" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB38" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AC38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD38" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>324</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>325</v>
+      </c>
+      <c r="AK38">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="AL38">
+        <v>1.52</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO38">
+        <v>5</v>
+      </c>
+      <c r="AP38">
+        <v>6</v>
+      </c>
+      <c r="AQ38">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="AR38">
+        <v>0.315</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>187</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E39" s="1">
+        <v>730</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M39" s="1">
+        <v>1225</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>318</v>
+      </c>
       <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-      <c r="AA39" s="1"/>
-      <c r="AB39" s="1"/>
-      <c r="AC39" s="1"/>
-      <c r="AD39" s="1"/>
-      <c r="AE39" s="1"/>
-      <c r="AF39" s="1"/>
-      <c r="AG39" s="1"/>
-      <c r="AH39" s="1"/>
-      <c r="AI39" s="1"/>
-      <c r="AJ39" s="1"/>
-      <c r="AK39" s="14"/>
-      <c r="AL39" s="18"/>
-      <c r="AM39" s="18"/>
-      <c r="AN39" s="18"/>
-      <c r="AO39" s="1"/>
-      <c r="AP39" s="1"/>
-      <c r="AQ39" s="1"/>
-      <c r="AR39" s="14"/>
-      <c r="AS39" s="1"/>
-      <c r="AT39" s="1"/>
-      <c r="AU39" s="1"/>
-    </row>
-    <row r="40" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
+      <c r="Q39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z39" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD39" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>324</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>325</v>
+      </c>
+      <c r="AK39">
+        <v>114.292</v>
+      </c>
+      <c r="AL39">
+        <v>84.625</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO39">
+        <v>12</v>
+      </c>
+      <c r="AP39">
+        <v>12</v>
+      </c>
+      <c r="AQ39">
+        <v>19.568999999999999</v>
+      </c>
+      <c r="AR39">
+        <v>10.016</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>336</v>
+      </c>
+      <c r="BO39" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="40" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>187</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E40" s="1">
+        <v>730</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M40" s="1">
+        <v>1225</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>318</v>
+      </c>
       <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
-      <c r="AA40" s="1"/>
-      <c r="AB40" s="1"/>
-      <c r="AC40" s="1"/>
-      <c r="AD40" s="1"/>
-      <c r="AE40" s="1"/>
-      <c r="AF40" s="1"/>
-      <c r="AG40" s="1"/>
-      <c r="AH40" s="1"/>
-      <c r="AI40" s="1"/>
-      <c r="AJ40" s="1"/>
-      <c r="AK40" s="14"/>
-      <c r="AL40" s="18"/>
-      <c r="AM40" s="18"/>
-      <c r="AN40" s="18"/>
-      <c r="AO40" s="1"/>
-      <c r="AP40" s="1"/>
-      <c r="AQ40" s="1"/>
-      <c r="AR40" s="14"/>
-      <c r="AS40" s="1"/>
-      <c r="AT40" s="1"/>
-      <c r="AU40" s="1"/>
-    </row>
-    <row r="41" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
+      <c r="Q40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z40" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD40" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE40" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>324</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>325</v>
+      </c>
+      <c r="AK40">
+        <v>80.625</v>
+      </c>
+      <c r="AL40">
+        <v>74.135999999999996</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO40">
+        <v>12</v>
+      </c>
+      <c r="AP40">
+        <v>11</v>
+      </c>
+      <c r="AQ40">
+        <v>15.917</v>
+      </c>
+      <c r="AR40">
+        <v>13.195</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="41" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>187</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E41" s="1">
+        <v>730</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M41" s="1">
+        <v>1225</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>318</v>
+      </c>
       <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
-      <c r="AA41" s="1"/>
-      <c r="AB41" s="1"/>
-      <c r="AC41" s="1"/>
-      <c r="AD41" s="1"/>
-      <c r="AE41" s="1"/>
-      <c r="AF41" s="1"/>
-      <c r="AG41" s="1"/>
-      <c r="AH41" s="1"/>
-      <c r="AI41" s="1"/>
-      <c r="AJ41" s="1"/>
-      <c r="AK41" s="14"/>
-      <c r="AL41" s="18"/>
-      <c r="AM41" s="18"/>
-      <c r="AN41" s="18"/>
-      <c r="AO41" s="1"/>
-      <c r="AP41" s="1"/>
-      <c r="AQ41" s="1"/>
-      <c r="AR41" s="14"/>
-      <c r="AS41" s="1"/>
-      <c r="AT41" s="1"/>
-      <c r="AU41" s="1"/>
-    </row>
-    <row r="42" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
+      <c r="Q41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z41" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB41" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AC41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD41" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>324</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>325</v>
+      </c>
+      <c r="AK41">
+        <v>2.2210000000000001</v>
+      </c>
+      <c r="AL41">
+        <v>1.534</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO41">
+        <v>12</v>
+      </c>
+      <c r="AP41">
+        <v>12</v>
+      </c>
+      <c r="AQ41">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="AR41">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="42" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>187</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E42" s="1">
+        <v>730</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M42" s="1">
+        <v>1225</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>318</v>
+      </c>
       <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-      <c r="X42" s="1"/>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
-      <c r="AA42" s="1"/>
-      <c r="AB42" s="1"/>
-      <c r="AC42" s="1"/>
-      <c r="AD42" s="1"/>
-      <c r="AE42" s="1"/>
-      <c r="AF42" s="1"/>
-      <c r="AG42" s="1"/>
-      <c r="AH42" s="1"/>
-      <c r="AI42" s="1"/>
-      <c r="AJ42" s="1"/>
-      <c r="AK42" s="14"/>
-      <c r="AL42" s="18"/>
-      <c r="AM42" s="18"/>
-      <c r="AN42" s="18"/>
-      <c r="AO42" s="1"/>
-      <c r="AP42" s="1"/>
-      <c r="AQ42" s="1"/>
-      <c r="AR42" s="14"/>
-      <c r="AS42" s="1"/>
-      <c r="AT42" s="1"/>
-      <c r="AU42" s="1"/>
-    </row>
-    <row r="43" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
+      <c r="Q42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z42" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB42" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AC42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD42" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>324</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>325</v>
+      </c>
+      <c r="AK42">
+        <v>1.8129999999999999</v>
+      </c>
+      <c r="AL42">
+        <v>1.363</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO42">
+        <v>12</v>
+      </c>
+      <c r="AP42">
+        <v>11</v>
+      </c>
+      <c r="AQ42">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="AR42">
+        <v>0.19</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="43" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>173</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E43" s="1">
+        <v>835</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
-      <c r="AA43" s="1"/>
-      <c r="AB43" s="1"/>
-      <c r="AC43" s="1"/>
-      <c r="AD43" s="1"/>
-      <c r="AE43" s="1"/>
-      <c r="AF43" s="1"/>
-      <c r="AG43" s="1"/>
-      <c r="AH43" s="1"/>
-      <c r="AI43" s="1"/>
-      <c r="AJ43" s="1"/>
-      <c r="AK43" s="14"/>
-      <c r="AL43" s="18"/>
-      <c r="AM43" s="18"/>
-      <c r="AN43" s="18"/>
-      <c r="AO43" s="1"/>
-      <c r="AP43" s="1"/>
-      <c r="AQ43" s="1"/>
-      <c r="AR43" s="14"/>
-      <c r="AS43" s="1"/>
-      <c r="AT43" s="1"/>
-      <c r="AU43" s="1"/>
-    </row>
-    <row r="44" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
+      <c r="Q43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z43" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA43" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD43" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>346</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>347</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>348</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>343</v>
+      </c>
+      <c r="AK43">
+        <v>10.1</v>
+      </c>
+      <c r="AL43">
+        <v>10.8</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO43">
+        <v>6</v>
+      </c>
+      <c r="AP43">
+        <v>6</v>
+      </c>
+      <c r="AQ43">
+        <v>1.5</v>
+      </c>
+      <c r="AR43">
+        <v>1.2</v>
+      </c>
+      <c r="AS43" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT43" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="44" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>173</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E44" s="1">
+        <v>835</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
-      <c r="AA44" s="1"/>
-      <c r="AB44" s="1"/>
-      <c r="AC44" s="1"/>
-      <c r="AD44" s="1"/>
-      <c r="AE44" s="1"/>
-      <c r="AF44" s="1"/>
-      <c r="AG44" s="1"/>
-      <c r="AH44" s="1"/>
-      <c r="AI44" s="1"/>
-      <c r="AJ44" s="1"/>
-      <c r="AK44" s="14"/>
-      <c r="AL44" s="18"/>
-      <c r="AM44" s="18"/>
-      <c r="AN44" s="18"/>
-      <c r="AO44" s="1"/>
-      <c r="AP44" s="1"/>
-      <c r="AQ44" s="1"/>
-      <c r="AR44" s="14"/>
-      <c r="AS44" s="1"/>
-      <c r="AT44" s="1"/>
-      <c r="AU44" s="1"/>
-    </row>
-    <row r="45" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
+      <c r="Q44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z44" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA44" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD44" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>350</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>351</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>348</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>343</v>
+      </c>
+      <c r="AK44">
+        <v>13.8</v>
+      </c>
+      <c r="AL44">
+        <v>10.8</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO44">
+        <v>6</v>
+      </c>
+      <c r="AP44">
+        <v>6</v>
+      </c>
+      <c r="AQ44">
+        <v>1</v>
+      </c>
+      <c r="AR44">
+        <v>1.2</v>
+      </c>
+      <c r="AS44" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="45" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>173</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E45" s="1">
+        <v>835</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-      <c r="X45" s="1"/>
-      <c r="Y45" s="1"/>
-      <c r="Z45" s="1"/>
-      <c r="AA45" s="1"/>
-      <c r="AB45" s="1"/>
-      <c r="AC45" s="1"/>
-      <c r="AD45" s="1"/>
-      <c r="AE45" s="1"/>
-      <c r="AF45" s="1"/>
-      <c r="AG45" s="1"/>
-      <c r="AH45" s="1"/>
-      <c r="AI45" s="1"/>
-      <c r="AJ45" s="1"/>
-      <c r="AK45" s="14"/>
-      <c r="AL45" s="18"/>
-      <c r="AM45" s="18"/>
-      <c r="AN45" s="18"/>
-      <c r="AO45" s="1"/>
-      <c r="AP45" s="1"/>
-      <c r="AQ45" s="1"/>
-      <c r="AR45" s="14"/>
-      <c r="AS45" s="1"/>
-      <c r="AT45" s="1"/>
-      <c r="AU45" s="1"/>
-    </row>
-    <row r="46" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
+      <c r="Q45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z45" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB45" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AC45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD45" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>354</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>347</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>348</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>343</v>
+      </c>
+      <c r="AK45">
+        <v>3.7</v>
+      </c>
+      <c r="AL45">
+        <v>4.7</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO45">
+        <v>6</v>
+      </c>
+      <c r="AP45">
+        <v>6</v>
+      </c>
+      <c r="AQ45">
+        <v>0.7</v>
+      </c>
+      <c r="AR45">
+        <v>0.8</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT45" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="46" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>173</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E46" s="1">
+        <v>835</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-      <c r="X46" s="1"/>
-      <c r="Y46" s="1"/>
-      <c r="Z46" s="1"/>
-      <c r="AA46" s="1"/>
-      <c r="AB46" s="1"/>
-      <c r="AC46" s="1"/>
-      <c r="AD46" s="1"/>
-      <c r="AE46" s="1"/>
-      <c r="AF46" s="1"/>
-      <c r="AG46" s="1"/>
-      <c r="AH46" s="1"/>
-      <c r="AI46" s="1"/>
-      <c r="AJ46" s="1"/>
-      <c r="AK46" s="14"/>
-      <c r="AL46" s="18"/>
-      <c r="AM46" s="18"/>
-      <c r="AN46" s="18"/>
-      <c r="AO46" s="1"/>
-      <c r="AP46" s="1"/>
-      <c r="AQ46" s="1"/>
-      <c r="AR46" s="14"/>
-      <c r="AS46" s="1"/>
-      <c r="AT46" s="1"/>
-      <c r="AU46" s="1"/>
-    </row>
-    <row r="47" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
+      <c r="Q46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="W46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X46" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z46" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA46" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB46" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AC46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD46" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>350</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>351</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>348</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>343</v>
+      </c>
+      <c r="AK46">
+        <v>6.7</v>
+      </c>
+      <c r="AL46">
+        <v>4.7</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO46">
+        <v>6</v>
+      </c>
+      <c r="AP46">
+        <v>6</v>
+      </c>
+      <c r="AQ46">
+        <v>0.9</v>
+      </c>
+      <c r="AR46">
+        <v>0.8</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT46" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="47" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>173</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E47" s="1">
+        <v>835</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-      <c r="X47" s="1"/>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="1"/>
-      <c r="AA47" s="1"/>
-      <c r="AB47" s="1"/>
-      <c r="AC47" s="1"/>
-      <c r="AD47" s="1"/>
-      <c r="AE47" s="1"/>
-      <c r="AF47" s="1"/>
-      <c r="AG47" s="1"/>
-      <c r="AH47" s="1"/>
-      <c r="AI47" s="1"/>
-      <c r="AJ47" s="1"/>
-      <c r="AK47" s="14"/>
-      <c r="AL47" s="18"/>
-      <c r="AM47" s="18"/>
-      <c r="AN47" s="18"/>
-      <c r="AO47" s="1"/>
-      <c r="AP47" s="1"/>
-      <c r="AQ47" s="1"/>
-      <c r="AR47" s="14"/>
-      <c r="AS47" s="1"/>
-      <c r="AT47" s="1"/>
-      <c r="AU47" s="1"/>
-    </row>
-    <row r="48" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
+      <c r="Q47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="W47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z47" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD47" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>347</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>358</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>343</v>
+      </c>
+      <c r="AK47">
+        <v>10</v>
+      </c>
+      <c r="AL47">
+        <v>9.9</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO47">
+        <v>6</v>
+      </c>
+      <c r="AP47">
+        <v>6</v>
+      </c>
+      <c r="AQ47">
+        <v>0.3</v>
+      </c>
+      <c r="AR47">
+        <v>0.3</v>
+      </c>
+      <c r="AS47" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT47" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="48" spans="1:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>173</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E48" s="1">
+        <v>835</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
-      <c r="X48" s="1"/>
-      <c r="Y48" s="1"/>
-      <c r="Z48" s="1"/>
-      <c r="AA48" s="1"/>
-      <c r="AB48" s="1"/>
-      <c r="AC48" s="1"/>
-      <c r="AD48" s="1"/>
-      <c r="AE48" s="1"/>
-      <c r="AF48" s="1"/>
-      <c r="AG48" s="1"/>
-      <c r="AH48" s="1"/>
-      <c r="AI48" s="1"/>
-      <c r="AJ48" s="1"/>
-      <c r="AK48" s="14"/>
-      <c r="AL48" s="18"/>
-      <c r="AM48" s="18"/>
-      <c r="AN48" s="18"/>
-      <c r="AO48" s="1"/>
-      <c r="AP48" s="1"/>
-      <c r="AQ48" s="1"/>
-      <c r="AR48" s="14"/>
-      <c r="AS48" s="1"/>
-      <c r="AT48" s="1"/>
-      <c r="AU48" s="1"/>
+      <c r="Q48" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="W48" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z48" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD48" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>360</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>351</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>358</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>343</v>
+      </c>
+      <c r="AK48">
+        <v>13.1</v>
+      </c>
+      <c r="AL48">
+        <v>9.9</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO48">
+        <v>6</v>
+      </c>
+      <c r="AP48">
+        <v>6</v>
+      </c>
+      <c r="AQ48">
+        <v>0.4</v>
+      </c>
+      <c r="AR48">
+        <v>0.3</v>
+      </c>
+      <c r="AS48" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT48" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="49" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
+      <c r="A49" s="1">
+        <v>173</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E49" s="1">
+        <v>835</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-      <c r="X49" s="1"/>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
-      <c r="AA49" s="1"/>
-      <c r="AB49" s="1"/>
-      <c r="AC49" s="1"/>
-      <c r="AD49" s="1"/>
-      <c r="AE49" s="1"/>
-      <c r="AF49" s="1"/>
-      <c r="AG49" s="1"/>
-      <c r="AH49" s="1"/>
-      <c r="AI49" s="1"/>
-      <c r="AJ49" s="1"/>
-      <c r="AK49" s="14"/>
-      <c r="AL49" s="18"/>
-      <c r="AM49" s="18"/>
-      <c r="AN49" s="18"/>
-      <c r="AO49" s="1"/>
-      <c r="AP49" s="1"/>
-      <c r="AQ49" s="1"/>
-      <c r="AR49" s="14"/>
-      <c r="AS49" s="1"/>
-      <c r="AT49" s="1"/>
-      <c r="AU49" s="1"/>
+      <c r="Q49" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="W49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z49" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA49" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB49" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD49" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>362</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>363</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>358</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>343</v>
+      </c>
+      <c r="AK49">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AL49">
+        <v>9.9</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO49">
+        <v>6</v>
+      </c>
+      <c r="AP49">
+        <v>6</v>
+      </c>
+      <c r="AQ49">
+        <v>0.3</v>
+      </c>
+      <c r="AR49">
+        <v>0.3</v>
+      </c>
+      <c r="AS49" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT49" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="50" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
+      <c r="A50" s="1">
+        <v>173</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E50" s="1">
+        <v>835</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
-      <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
-      <c r="Z50" s="1"/>
-      <c r="AA50" s="1"/>
-      <c r="AB50" s="1"/>
-      <c r="AC50" s="1"/>
-      <c r="AD50" s="1"/>
-      <c r="AE50" s="1"/>
-      <c r="AF50" s="1"/>
-      <c r="AG50" s="1"/>
-      <c r="AH50" s="1"/>
-      <c r="AI50" s="1"/>
-      <c r="AJ50" s="1"/>
-      <c r="AK50" s="14"/>
-      <c r="AL50" s="18"/>
-      <c r="AM50" s="18"/>
-      <c r="AN50" s="18"/>
-      <c r="AO50" s="1"/>
-      <c r="AP50" s="1"/>
-      <c r="AQ50" s="1"/>
-      <c r="AR50" s="14"/>
-      <c r="AS50" s="1"/>
-      <c r="AT50" s="1"/>
-      <c r="AU50" s="1"/>
+      <c r="Q50" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="T50" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="W50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X50" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y50" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z50" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA50" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD50" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>365</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>358</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>343</v>
+      </c>
+      <c r="AK50">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AL50">
+        <v>9.9</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO50">
+        <v>6</v>
+      </c>
+      <c r="AP50">
+        <v>6</v>
+      </c>
+      <c r="AQ50">
+        <v>0.2</v>
+      </c>
+      <c r="AR50">
+        <v>0.3</v>
+      </c>
+      <c r="AS50" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT50" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="51" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
+      <c r="A51" s="1">
+        <v>173</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E51" s="1">
+        <v>835</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
-      <c r="X51" s="1"/>
-      <c r="Y51" s="1"/>
-      <c r="Z51" s="1"/>
-      <c r="AA51" s="1"/>
-      <c r="AB51" s="1"/>
-      <c r="AC51" s="1"/>
-      <c r="AD51" s="1"/>
-      <c r="AE51" s="1"/>
-      <c r="AF51" s="1"/>
-      <c r="AG51" s="1"/>
-      <c r="AH51" s="1"/>
-      <c r="AI51" s="1"/>
-      <c r="AJ51" s="1"/>
-      <c r="AK51" s="14"/>
-      <c r="AL51" s="18"/>
-      <c r="AM51" s="18"/>
-      <c r="AN51" s="18"/>
-      <c r="AO51" s="1"/>
-      <c r="AP51" s="1"/>
-      <c r="AQ51" s="1"/>
-      <c r="AR51" s="14"/>
-      <c r="AS51" s="1"/>
-      <c r="AT51" s="1"/>
-      <c r="AU51" s="1"/>
+      <c r="Q51" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="W51" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X51" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z51" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA51" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB51" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AC51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD51" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE51" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>347</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>358</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>343</v>
+      </c>
+      <c r="AK51">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AL51">
+        <v>5</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO51">
+        <v>6</v>
+      </c>
+      <c r="AP51">
+        <v>6</v>
+      </c>
+      <c r="AQ51">
+        <v>0.2</v>
+      </c>
+      <c r="AR51">
+        <v>0.1</v>
+      </c>
+      <c r="AS51" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT51" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="52" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
+      <c r="A52" s="1">
+        <v>173</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E52" s="1">
+        <v>835</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
-      <c r="W52" s="1"/>
-      <c r="X52" s="1"/>
-      <c r="Y52" s="1"/>
-      <c r="Z52" s="1"/>
-      <c r="AA52" s="1"/>
-      <c r="AB52" s="1"/>
-      <c r="AC52" s="1"/>
-      <c r="AD52" s="1"/>
-      <c r="AE52" s="1"/>
-      <c r="AF52" s="1"/>
-      <c r="AG52" s="1"/>
-      <c r="AH52" s="1"/>
-      <c r="AI52" s="1"/>
-      <c r="AJ52" s="1"/>
-      <c r="AK52" s="14"/>
-      <c r="AL52" s="18"/>
-      <c r="AM52" s="18"/>
-      <c r="AN52" s="18"/>
-      <c r="AO52" s="1"/>
-      <c r="AP52" s="1"/>
-      <c r="AQ52" s="1"/>
-      <c r="AR52" s="14"/>
-      <c r="AS52" s="1"/>
-      <c r="AT52" s="1"/>
-      <c r="AU52" s="1"/>
+      <c r="Q52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="T52" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="V52" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="W52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X52" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y52" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z52" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA52" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB52" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AC52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD52" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE52" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>360</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>351</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>358</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>343</v>
+      </c>
+      <c r="AK52">
+        <v>6</v>
+      </c>
+      <c r="AL52">
+        <v>5</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO52">
+        <v>6</v>
+      </c>
+      <c r="AP52">
+        <v>6</v>
+      </c>
+      <c r="AQ52">
+        <v>0.2</v>
+      </c>
+      <c r="AR52">
+        <v>0.1</v>
+      </c>
+      <c r="AS52" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT52" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="53" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
+      <c r="A53" s="1">
+        <v>173</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E53" s="1">
+        <v>835</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-      <c r="T53" s="1"/>
-      <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
-      <c r="W53" s="1"/>
-      <c r="X53" s="1"/>
-      <c r="Y53" s="1"/>
-      <c r="Z53" s="1"/>
-      <c r="AA53" s="1"/>
-      <c r="AB53" s="1"/>
-      <c r="AC53" s="1"/>
-      <c r="AD53" s="1"/>
-      <c r="AE53" s="1"/>
-      <c r="AF53" s="1"/>
-      <c r="AG53" s="1"/>
-      <c r="AH53" s="1"/>
-      <c r="AI53" s="1"/>
-      <c r="AJ53" s="1"/>
-      <c r="AK53" s="14"/>
-      <c r="AL53" s="18"/>
-      <c r="AM53" s="18"/>
-      <c r="AN53" s="18"/>
-      <c r="AO53" s="1"/>
-      <c r="AP53" s="1"/>
-      <c r="AQ53" s="1"/>
-      <c r="AR53" s="14"/>
-      <c r="AS53" s="1"/>
-      <c r="AT53" s="1"/>
-      <c r="AU53" s="1"/>
+      <c r="Q53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="T53" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="W53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y53" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z53" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA53" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB53" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AC53" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD53" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>362</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>363</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>358</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>343</v>
+      </c>
+      <c r="AK53">
+        <v>4.7</v>
+      </c>
+      <c r="AL53">
+        <v>5</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO53">
+        <v>6</v>
+      </c>
+      <c r="AP53">
+        <v>6</v>
+      </c>
+      <c r="AQ53">
+        <v>0.1</v>
+      </c>
+      <c r="AR53">
+        <v>0.1</v>
+      </c>
+      <c r="AS53" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT53" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="54" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
+      <c r="A54" s="1">
+        <v>173</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E54" s="1">
+        <v>835</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
-      <c r="X54" s="1"/>
-      <c r="Y54" s="1"/>
-      <c r="Z54" s="1"/>
-      <c r="AA54" s="1"/>
-      <c r="AB54" s="1"/>
-      <c r="AC54" s="1"/>
-      <c r="AD54" s="1"/>
-      <c r="AE54" s="1"/>
-      <c r="AF54" s="1"/>
-      <c r="AG54" s="1"/>
-      <c r="AH54" s="1"/>
-      <c r="AI54" s="1"/>
-      <c r="AJ54" s="1"/>
-      <c r="AK54" s="14"/>
-      <c r="AL54" s="18"/>
-      <c r="AM54" s="18"/>
-      <c r="AN54" s="18"/>
-      <c r="AO54" s="1"/>
-      <c r="AP54" s="1"/>
-      <c r="AQ54" s="1"/>
-      <c r="AR54" s="14"/>
-      <c r="AS54" s="1"/>
-      <c r="AT54" s="1"/>
-      <c r="AU54" s="1"/>
+      <c r="Q54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="T54" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="V54" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="W54" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X54" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z54" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA54" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB54" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AC54" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD54" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>365</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>358</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>343</v>
+      </c>
+      <c r="AK54">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AL54">
+        <v>5</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO54">
+        <v>6</v>
+      </c>
+      <c r="AP54">
+        <v>6</v>
+      </c>
+      <c r="AQ54">
+        <v>0.1</v>
+      </c>
+      <c r="AR54">
+        <v>0.1</v>
+      </c>
+      <c r="AS54" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT54" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="55" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
+      <c r="A55" s="1">
+        <v>3</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2025</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
-      <c r="X55" s="1"/>
-      <c r="Y55" s="1"/>
-      <c r="Z55" s="1"/>
-      <c r="AA55" s="1"/>
-      <c r="AB55" s="1"/>
-      <c r="AC55" s="1"/>
-      <c r="AD55" s="1"/>
-      <c r="AE55" s="1"/>
-      <c r="AF55" s="1"/>
-      <c r="AG55" s="1"/>
-      <c r="AH55" s="1"/>
-      <c r="AI55" s="1"/>
-      <c r="AJ55" s="1"/>
-      <c r="AK55" s="14"/>
-      <c r="AL55" s="18"/>
-      <c r="AM55" s="18"/>
-      <c r="AN55" s="18"/>
-      <c r="AO55" s="1"/>
-      <c r="AP55" s="1"/>
-      <c r="AQ55" s="1"/>
-      <c r="AR55" s="14"/>
-      <c r="AS55" s="1"/>
-      <c r="AT55" s="1"/>
-      <c r="AU55" s="1"/>
+      <c r="Q55" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="T55" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="V55" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="W55" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X55" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y55" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z55" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA55" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB55" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD55" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>379</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>380</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>381</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>382</v>
+      </c>
+      <c r="AK55">
+        <v>130.66999999999999</v>
+      </c>
+      <c r="AL55">
+        <v>127.3</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO55">
+        <v>3</v>
+      </c>
+      <c r="AP55">
+        <v>3</v>
+      </c>
+      <c r="AQ55">
+        <v>2.19</v>
+      </c>
+      <c r="AR55">
+        <v>6.81</v>
+      </c>
+      <c r="AS55" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT55" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="56" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
+      <c r="A56" s="1">
+        <v>3</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2025</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
-      <c r="X56" s="1"/>
-      <c r="Y56" s="1"/>
-      <c r="Z56" s="1"/>
-      <c r="AA56" s="1"/>
-      <c r="AB56" s="1"/>
-      <c r="AC56" s="1"/>
-      <c r="AD56" s="1"/>
-      <c r="AE56" s="1"/>
-      <c r="AF56" s="1"/>
-      <c r="AG56" s="1"/>
-      <c r="AH56" s="1"/>
-      <c r="AI56" s="1"/>
-      <c r="AJ56" s="1"/>
-      <c r="AK56" s="14"/>
-      <c r="AL56" s="18"/>
-      <c r="AM56" s="18"/>
-      <c r="AN56" s="18"/>
-      <c r="AO56" s="1"/>
-      <c r="AP56" s="1"/>
-      <c r="AQ56" s="1"/>
-      <c r="AR56" s="14"/>
-      <c r="AS56" s="1"/>
-      <c r="AT56" s="1"/>
-      <c r="AU56" s="1"/>
+      <c r="Q56" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="T56" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="V56" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="W56" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X56" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y56" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z56" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA56" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB56" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="AC56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD56" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE56" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>379</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>380</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>381</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>382</v>
+      </c>
+      <c r="AK56">
+        <v>56.33</v>
+      </c>
+      <c r="AL56">
+        <v>58.33</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO56">
+        <v>3</v>
+      </c>
+      <c r="AP56">
+        <v>3</v>
+      </c>
+      <c r="AQ56">
+        <v>4.18</v>
+      </c>
+      <c r="AR56">
+        <v>3.76</v>
+      </c>
+      <c r="AS56" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT56" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="57" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
+      <c r="A57" s="1">
+        <v>3</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D57" s="1">
+        <v>2025</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-      <c r="T57" s="1"/>
-      <c r="U57" s="1"/>
-      <c r="V57" s="1"/>
-      <c r="W57" s="1"/>
-      <c r="X57" s="1"/>
-      <c r="Y57" s="1"/>
-      <c r="Z57" s="1"/>
-      <c r="AA57" s="1"/>
-      <c r="AB57" s="1"/>
-      <c r="AC57" s="1"/>
-      <c r="AD57" s="1"/>
-      <c r="AE57" s="1"/>
-      <c r="AF57" s="1"/>
-      <c r="AG57" s="1"/>
-      <c r="AH57" s="1"/>
-      <c r="AI57" s="1"/>
-      <c r="AJ57" s="1"/>
-      <c r="AK57" s="14"/>
-      <c r="AL57" s="18"/>
-      <c r="AM57" s="18"/>
-      <c r="AN57" s="18"/>
-      <c r="AO57" s="1"/>
-      <c r="AP57" s="1"/>
-      <c r="AQ57" s="1"/>
-      <c r="AR57" s="14"/>
-      <c r="AS57" s="1"/>
-      <c r="AT57" s="1"/>
-      <c r="AU57" s="1"/>
+      <c r="Q57" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="T57" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U57" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="V57" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="W57" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X57" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y57" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z57" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA57" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB57" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="AC57" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD57" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE57" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>379</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>380</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>381</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>382</v>
+      </c>
+      <c r="AK57">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="AL57">
+        <v>103.48</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN57" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO57">
+        <v>3</v>
+      </c>
+      <c r="AP57">
+        <v>3</v>
+      </c>
+      <c r="AQ57">
+        <v>4.3</v>
+      </c>
+      <c r="AR57">
+        <v>2.79</v>
+      </c>
+      <c r="AS57" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT57" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="58" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
+      <c r="A58" s="1">
+        <v>3</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D58" s="1">
+        <v>2025</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
-      <c r="T58" s="1"/>
-      <c r="U58" s="1"/>
-      <c r="V58" s="1"/>
-      <c r="W58" s="1"/>
-      <c r="X58" s="1"/>
-      <c r="Y58" s="1"/>
-      <c r="Z58" s="1"/>
-      <c r="AA58" s="1"/>
-      <c r="AB58" s="1"/>
-      <c r="AC58" s="1"/>
-      <c r="AD58" s="1"/>
-      <c r="AE58" s="1"/>
-      <c r="AF58" s="1"/>
-      <c r="AG58" s="1"/>
-      <c r="AH58" s="1"/>
-      <c r="AI58" s="1"/>
-      <c r="AJ58" s="1"/>
-      <c r="AK58" s="14"/>
-      <c r="AL58" s="18"/>
-      <c r="AM58" s="18"/>
-      <c r="AN58" s="18"/>
-      <c r="AO58" s="1"/>
-      <c r="AP58" s="1"/>
-      <c r="AQ58" s="1"/>
-      <c r="AR58" s="14"/>
-      <c r="AS58" s="1"/>
-      <c r="AT58" s="1"/>
-      <c r="AU58" s="1"/>
+      <c r="Q58" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="T58" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U58" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="V58" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="W58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X58" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y58" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z58" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA58" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB58" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AC58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD58" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE58" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>379</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>380</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>381</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>382</v>
+      </c>
+      <c r="AK58">
+        <v>25.12</v>
+      </c>
+      <c r="AL58">
+        <v>23.97</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO58">
+        <v>3</v>
+      </c>
+      <c r="AP58">
+        <v>3</v>
+      </c>
+      <c r="AQ58">
+        <v>1.97</v>
+      </c>
+      <c r="AR58">
+        <v>1.5</v>
+      </c>
+      <c r="AS58" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT58" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="59" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
@@ -51783,7 +54843,7 @@
       <c r="AU997" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
